--- a/Final_Project/GA_Traning/實驗結果.xlsx
+++ b/Final_Project/GA_Traning/實驗結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chueating/Desktop/Programming/python/GA/Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chueating/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41C655B-C531-604F-B17A-72917E561319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB43585-34B6-A14D-BA93-1A5E3C4735B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F58A60F3-A22C-974B-B053-3B28346335AF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>第一組</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,29 @@
   </si>
   <si>
     <t>intel 1135G7(4核)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20000000</t>
+  </si>
+  <si>
+    <t>&gt;20000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5小時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>論文未給</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B36B45F-743F-9D45-A6FE-76917431706F}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
@@ -765,8 +788,11 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B14" s="1">
+        <v>-1.3110939500000001</v>
+      </c>
       <c r="C14" s="1">
-        <v>-1.3110939500000001</v>
+        <v>-2.3131635300000002</v>
       </c>
       <c r="D14" s="1">
         <v>0.23370504</v>
@@ -779,8 +805,11 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B15" s="1">
+        <v>-0.4987819</v>
+      </c>
       <c r="C15" s="1">
-        <v>-0.4987819</v>
+        <v>-1.4161513100000001</v>
       </c>
       <c r="D15" s="1">
         <v>0.34341390999999999</v>
@@ -793,8 +822,11 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B16" s="1">
+        <v>-0.59145128999999996</v>
+      </c>
       <c r="C16" s="1">
-        <v>-0.59145128999999996</v>
+        <v>-1.71023006</v>
       </c>
       <c r="D16" s="1">
         <v>-1.8527386699999999</v>
@@ -804,12 +836,15 @@
         <v>-3.3855972247263599</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B17" s="1">
+        <v>7.9367729999999997E-2</v>
+      </c>
       <c r="C17" s="1">
-        <v>7.9367729999999997E-2</v>
+        <v>-4.7346239499999996</v>
       </c>
       <c r="D17" s="1">
         <v>-4.3431966800000001</v>
@@ -818,12 +853,15 @@
         <v>-7.8992654273516498</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B18" s="1">
+        <v>4.6348458499999996</v>
+      </c>
       <c r="C18" s="1">
-        <v>4.6348458499999996</v>
+        <v>2.3182730600000001</v>
       </c>
       <c r="D18" s="1">
         <v>3.4117561699999999</v>
@@ -832,12 +870,15 @@
         <v>3.4181268101392601</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B19" s="1">
+        <v>-4.51519168</v>
+      </c>
       <c r="C19" s="1">
-        <v>-4.51519168</v>
+        <v>-3.6471852299999998</v>
       </c>
       <c r="D19" s="1">
         <v>-2.19177329</v>
@@ -846,31 +887,43 @@
         <v>-4.5001588250827602</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B20" s="1">
+        <v>6043124</v>
+      </c>
       <c r="C20" s="1">
-        <v>6043124</v>
+        <v>6432106</v>
       </c>
       <c r="D20" s="1">
         <v>40343</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>47</v>
+      </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -883,24 +936,36 @@
       <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1">
-        <v>4822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -909,81 +974,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>1</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D27" s="1">
         <v>1790580</v>
       </c>
-      <c r="E27" s="1">
-        <v>756360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>2</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D28" s="1">
         <v>4770080</v>
       </c>
-      <c r="E28" s="1">
-        <v>647680</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>3</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D29" s="1">
         <v>2282160</v>
       </c>
-      <c r="E29" s="1">
-        <v>2257040</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>4</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D30" s="1">
         <v>1123640</v>
       </c>
-      <c r="E30" s="1">
-        <v>931300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>5</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D31" s="1">
         <v>10522840</v>
       </c>
-      <c r="E31" s="1">
-        <v>3215860</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>6</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D32" s="1">
         <v>1488100</v>
       </c>
-      <c r="E32" s="1">
-        <v>4454480</v>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>7</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D33" s="1">
         <v>5511900</v>
       </c>
-      <c r="E33" s="1">
-        <v>251640</v>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -993,8 +1097,8 @@
       <c r="D34" s="1">
         <v>9561340</v>
       </c>
-      <c r="E34" s="1">
-        <v>13371500</v>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1004,8 +1108,8 @@
       <c r="D35" s="1">
         <v>5361620</v>
       </c>
-      <c r="E35" s="1">
-        <v>1871620</v>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1015,35 +1119,47 @@
       <c r="D36" s="1">
         <v>677740</v>
       </c>
-      <c r="E36" s="1">
-        <v>42064060</v>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D37" s="1">
         <v>4309000</v>
       </c>
-      <c r="E37" s="1">
-        <f>SUM(E27:E36)/10</f>
-        <v>6982154</v>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D38" s="1">
         <v>10522840</v>
       </c>
-      <c r="E38" s="1">
-        <v>42064060</v>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>